--- a/input/reg_retirement.xlsx
+++ b/input/reg_retirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD15CA-BE0B-4040-B9CD-3E1FB1158534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E27FF-5782-4274-9396-A291783AC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -515,7 +515,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -556,12 +556,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -580,8 +574,13 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,2077 +1040,2077 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>0.11448353313381925</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2">
         <v>2.1425747424861047E-3</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2">
         <v>-1.2527808648276685E-4</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2">
         <v>6.0392893569750017E-7</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2">
         <v>2.5222465360700923E-4</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2">
         <v>1.5316027116865421E-4</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2">
         <v>6.3486025753187376E-4</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2">
         <v>3.9680821824570342E-4</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2">
         <v>8.2490767921273439E-4</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2">
         <v>1.1476379231766031E-3</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2">
         <v>7.3812591618469653E-4</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2">
         <v>3.8595565541025905E-4</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2">
         <v>-6.8311816678144968E-5</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2">
         <v>-1.1223152980773463E-3</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2">
         <v>-9.6977154230064007E-4</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2">
         <v>-1.0505430335315006E-3</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2">
         <v>-1.1228933477797362E-3</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2">
         <v>-8.7914063620637842E-4</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2">
         <v>-9.3352143161481386E-4</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2">
         <v>-9.2842827215060958E-4</v>
       </c>
-      <c r="V2" s="34">
+      <c r="V2">
         <v>-1.0727655139075175E-3</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2">
         <v>8.7502992189434606E-5</v>
       </c>
-      <c r="X2" s="34">
+      <c r="X2">
         <v>-9.3611420333887811E-4</v>
       </c>
-      <c r="Y2" s="34">
+      <c r="Y2">
         <v>-1.0451481553379106E-3</v>
       </c>
-      <c r="Z2" s="34">
+      <c r="Z2">
         <v>4.766192419944739E-5</v>
       </c>
-      <c r="AA2" s="34">
+      <c r="AA2">
         <v>3.5851147417306529E-3</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>0.51950743567126356</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3">
         <v>-1.2527808648276685E-4</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3">
         <v>2.9643699889524578E-3</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3">
         <v>-2.306789269677257E-5</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3">
         <v>-1.5180975300925145E-4</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3">
         <v>-2.1813265964163234E-4</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3">
         <v>-4.7854586921251049E-4</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3">
         <v>9.5233496395388806E-4</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3">
         <v>1.4122222734261336E-4</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3">
         <v>7.3557947610707747E-4</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3">
         <v>2.5824994175601551E-4</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3">
         <v>3.924387048770614E-4</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3">
         <v>-7.4319933610259015E-4</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3">
         <v>-1.4967593666717627E-5</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3">
         <v>-2.7865907539978418E-4</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3">
         <v>-2.1335548277230665E-4</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3">
         <v>-1.0446621301676146E-4</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3">
         <v>1.4947129033945905E-4</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3">
         <v>-1.176839738954924E-4</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3">
         <v>8.656331950143703E-6</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3">
         <v>-1.1805153421513143E-4</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3">
         <v>1.7310758812209403E-4</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3">
         <v>-3.6873942937768606E-4</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3">
         <v>5.2635472047871112E-4</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3">
         <v>-1.8656487531624154E-5</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3">
         <v>-9.4005488895271438E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="32">
         <v>-3.6702006115715124E-3</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4">
         <v>6.0392893569750017E-7</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4">
         <v>-2.306789269677257E-5</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4">
         <v>1.8140772175609896E-7</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4">
         <v>1.174074769332882E-6</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4">
         <v>1.1086019703217514E-6</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4">
         <v>1.6598915340693059E-6</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4">
         <v>-8.5104147462385039E-6</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4">
         <v>-2.5796523850813986E-6</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4">
         <v>-6.99721902410052E-6</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4">
         <v>-3.2078120856085285E-6</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4">
         <v>-4.2595373285533975E-6</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4">
         <v>6.1539924209219715E-6</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4">
         <v>7.6333672694247788E-7</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4">
         <v>2.6031670347763662E-6</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4">
         <v>2.2101478824450532E-6</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4">
         <v>1.3163492486042787E-6</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4">
         <v>-5.2494189987733163E-7</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4">
         <v>1.2499769877597237E-6</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4">
         <v>1.9945614566154206E-7</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4">
         <v>1.0445862294921541E-6</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4">
         <v>-1.266969108587403E-6</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4">
         <v>3.5657495840428098E-6</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4">
         <v>-3.5642553969686104E-6</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4">
         <v>5.0838640345171843E-8</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4">
         <v>7.2762956871307407E-4</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="32">
         <v>-2.4379072378705104E-2</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5">
         <v>2.5222465360700923E-4</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5">
         <v>-1.5180975300925145E-4</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5">
         <v>1.174074769332882E-6</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5">
         <v>2.8751940016602507E-3</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5">
         <v>2.0618413583513642E-3</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5">
         <v>1.5498533181895568E-4</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5">
         <v>5.6410226600889484E-5</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5">
         <v>1.4501342215734504E-4</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5">
         <v>2.4161594527894468E-4</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5">
         <v>2.1115739367165193E-6</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5">
         <v>4.3191825787239487E-4</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5">
         <v>-1.7983825663606741E-4</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5">
         <v>-9.302101170335132E-4</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5">
         <v>-7.9644850038100849E-4</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5">
         <v>-2.2610959874128805E-4</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5">
         <v>-7.9887500822674936E-4</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5">
         <v>-7.4910617256294303E-4</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5">
         <v>-7.2499227720574755E-4</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5">
         <v>-7.8458157429551134E-4</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5">
         <v>-7.57781052438216E-4</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5">
         <v>-3.9447484228381449E-4</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5">
         <v>-6.5880459820107074E-4</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5">
         <v>-7.1312168569536685E-4</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5">
         <v>3.92314503123293E-5</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5">
         <v>2.5957831585412903E-3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="32">
         <v>-4.971171922248354E-2</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6">
         <v>1.5316027116865421E-4</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6">
         <v>-2.1813265964163234E-4</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6">
         <v>1.1086019703217514E-6</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6">
         <v>2.0618413583513642E-3</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6">
         <v>4.0330908274442516E-3</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6">
         <v>5.2739267529093852E-4</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6">
         <v>4.7021712499552087E-4</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6">
         <v>1.0979009217972526E-3</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6">
         <v>8.2646896223339595E-4</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6">
         <v>9.513026414710602E-4</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6">
         <v>1.5220749994320926E-3</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6">
         <v>-5.5056851987890401E-4</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6">
         <v>-1.3587371680241979E-3</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6">
         <v>-1.1324424324124305E-3</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6">
         <v>-8.3099240809198318E-4</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6">
         <v>-1.3077878228184756E-3</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6">
         <v>-1.2447091489569872E-3</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6">
         <v>-1.2045507416549046E-3</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6">
         <v>-1.0640617079114303E-3</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6">
         <v>-1.0819582759533763E-3</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6">
         <v>-1.1300135076368716E-3</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6">
         <v>-1.0302537563456494E-3</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6">
         <v>-1.5279460611584551E-3</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6">
         <v>9.4240026682963557E-5</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6">
         <v>5.4827588746037756E-3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="32">
         <v>0.53350499457192668</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7">
         <v>6.3486025753187376E-4</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7">
         <v>-4.7854586921251049E-4</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7">
         <v>1.6598915340693059E-6</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7">
         <v>1.5498533181895568E-4</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7">
         <v>5.2739267529093852E-4</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7">
         <v>4.6656474475384327E-3</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7">
         <v>6.5061002762867998E-5</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7">
         <v>8.9828522789603404E-7</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7">
         <v>-2.9260368271754461E-4</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7">
         <v>-3.8159973011323185E-4</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7">
         <v>-4.2978398513961354E-4</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7">
         <v>-7.9907675783386003E-5</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7">
         <v>-8.0438825517935297E-4</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7">
         <v>-8.5991425687565598E-4</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7">
         <v>-7.7369835934811004E-4</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7">
         <v>-7.1373099007466384E-4</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7">
         <v>-8.3048053178542275E-4</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7">
         <v>-6.9923007595987935E-4</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7">
         <v>-9.0330095586795348E-4</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7">
         <v>-7.8278096326773322E-4</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7">
         <v>-9.6628933039205871E-4</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7">
         <v>-8.5682352009716634E-4</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7">
         <v>-1.1817148465451989E-3</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7">
         <v>1.4084009302084985E-4</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7">
         <v>1.9656472762889649E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="32">
         <v>0.47425212096113506</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8">
         <v>3.9680821824570342E-4</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8">
         <v>9.5233496395388806E-4</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8">
         <v>-8.5104147462385039E-6</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8">
         <v>5.6410226600889484E-5</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8">
         <v>4.7021712499552087E-4</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8">
         <v>6.5061002762867998E-5</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8">
         <v>8.3249120279246143E-3</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8">
         <v>4.8645494785745178E-3</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8">
         <v>5.920933802809402E-3</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8">
         <v>6.2320670281534353E-3</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8">
         <v>6.2954220052874885E-3</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8">
         <v>-3.2665921132674402E-3</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8">
         <v>-7.0974464891498251E-4</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8">
         <v>-7.6390765519557084E-4</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8">
         <v>-7.5595401034161784E-4</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8">
         <v>-1.2386099048238546E-3</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8">
         <v>-9.2453804945999939E-4</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8">
         <v>-4.7451226847221653E-4</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8">
         <v>-3.9421494594178534E-4</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8">
         <v>-2.7774314878253707E-4</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8">
         <v>-1.1181749476991978E-3</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8">
         <v>-6.9107199134241411E-4</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8">
         <v>-8.9813422056371842E-4</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8">
         <v>5.9035410140056933E-5</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8">
         <v>-3.3165405792806885E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="32">
         <v>6.7266211829217659E-2</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9">
         <v>8.2490767921273439E-4</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9">
         <v>1.4122222734261336E-4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9">
         <v>-2.5796523850813986E-6</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9">
         <v>1.4501342215734504E-4</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9">
         <v>1.0979009217972526E-3</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9">
         <v>8.9828522789603404E-7</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9">
         <v>4.8645494785745178E-3</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9">
         <v>9.0870340945595901E-3</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9">
         <v>6.3033780552897555E-3</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9">
         <v>6.3286451654004103E-3</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9">
         <v>6.3625756820944405E-3</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9">
         <v>-7.9086716030990728E-4</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9">
         <v>-1.6035398544078389E-3</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9">
         <v>-1.089136412869918E-3</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9">
         <v>-1.4193572571806149E-3</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9">
         <v>-1.6464685889413262E-3</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9">
         <v>-1.3443442665422075E-3</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9">
         <v>-1.1490540189095684E-3</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9">
         <v>-7.4196112058664589E-4</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9">
         <v>-1.0479285992233229E-3</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9">
         <v>-1.1835509532736332E-3</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9">
         <v>-1.3336006550246039E-3</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9">
         <v>-1.9848743687250325E-3</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9">
         <v>9.7552117649241251E-5</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9">
         <v>-6.2966414062320744E-3</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="32">
         <v>2.3722917487678345E-2</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10">
         <v>1.1476379231766031E-3</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10">
         <v>7.3557947610707747E-4</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10">
         <v>-6.99721902410052E-6</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10">
         <v>2.4161594527894468E-4</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10">
         <v>8.2646896223339595E-4</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10">
         <v>-2.9260368271754461E-4</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10">
         <v>5.920933802809402E-3</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10">
         <v>6.3033780552897555E-3</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10">
         <v>1.0459668870346736E-2</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10">
         <v>7.577309167453819E-3</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10">
         <v>7.5771531600712649E-3</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10">
         <v>-2.6910567289918207E-4</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10">
         <v>-1.8103440700778465E-3</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10">
         <v>-1.6232059776211654E-3</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10">
         <v>-1.8739240094877152E-3</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10">
         <v>-1.7161624771508521E-3</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10">
         <v>-1.2791515902054497E-3</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10">
         <v>-1.1789262352315238E-3</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10">
         <v>-1.1439955480957078E-3</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10">
         <v>-1.0992137209090199E-3</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10">
         <v>5.7044537127577406E-4</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10">
         <v>-1.5113309845894542E-3</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10">
         <v>-1.6775131031238292E-3</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="Z10">
         <v>1.3577452641148988E-4</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AA10">
         <v>-2.7758828910198236E-2</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="32">
         <v>9.526749178414988E-2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11">
         <v>7.3812591618469653E-4</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11">
         <v>2.5824994175601551E-4</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11">
         <v>-3.2078120856085285E-6</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11">
         <v>2.1115739367165193E-6</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11">
         <v>9.513026414710602E-4</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11">
         <v>-3.8159973011323185E-4</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11">
         <v>6.2320670281534353E-3</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11">
         <v>6.3286451654004103E-3</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11">
         <v>7.577309167453819E-3</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11">
         <v>9.7306774734258489E-3</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11">
         <v>7.8094097985442149E-3</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11">
         <v>-2.6712798733112791E-4</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11">
         <v>-9.6854193660534695E-4</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11">
         <v>-9.8699403237044285E-4</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11">
         <v>-9.7426323191455305E-4</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11">
         <v>-1.1953798275334878E-3</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11">
         <v>-8.1649814137021472E-4</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11">
         <v>-5.1137651422349453E-4</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11">
         <v>-7.0717736955800553E-4</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11">
         <v>-4.9147433447011522E-4</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11">
         <v>-8.0051485640665978E-4</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11">
         <v>-6.5937256038867131E-4</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11">
         <v>-1.4054955486078602E-3</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11">
         <v>5.129455848593297E-5</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11">
         <v>-1.1921935556896024E-2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="32">
         <v>0.12857948700253902</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12">
         <v>3.8595565541025905E-4</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12">
         <v>3.924387048770614E-4</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12">
         <v>-4.2595373285533975E-6</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12">
         <v>4.3191825787239487E-4</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12">
         <v>1.5220749994320926E-3</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12">
         <v>-4.2978398513961354E-4</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12">
         <v>6.2954220052874885E-3</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12">
         <v>6.3625756820944405E-3</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12">
         <v>7.5771531600712649E-3</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12">
         <v>7.8094097985442149E-3</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12">
         <v>1.0039195294290322E-2</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12">
         <v>-4.1419804094758317E-4</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12">
         <v>-9.0391656871062834E-4</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12">
         <v>-3.506031776772528E-4</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12">
         <v>-7.5015555477096416E-4</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12">
         <v>-6.701979314631748E-4</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12">
         <v>-7.8352116257917291E-4</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12">
         <v>-4.9048556460376536E-4</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12">
         <v>-5.1113564351517281E-4</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12">
         <v>-2.9461694339657542E-4</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12">
         <v>-2.4769165915266948E-4</v>
       </c>
-      <c r="X12" s="34">
+      <c r="X12">
         <v>-6.4259483046158472E-4</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12">
         <v>-1.1574890822205804E-3</v>
       </c>
-      <c r="Z12" s="34">
+      <c r="Z12">
         <v>5.7227685678200172E-5</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12">
         <v>-1.6699100810414896E-2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="32">
         <v>-8.1528686525232472E-2</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13">
         <v>-6.8311816678144968E-5</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13">
         <v>-7.4319933610259015E-4</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13">
         <v>6.1539924209219715E-6</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13">
         <v>-1.7983825663606741E-4</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13">
         <v>-5.5056851987890401E-4</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13">
         <v>-7.9907675783386003E-5</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13">
         <v>-3.2665921132674402E-3</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13">
         <v>-7.9086716030990728E-4</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13">
         <v>-2.6910567289918207E-4</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13">
         <v>-2.6712798733112791E-4</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13">
         <v>-4.1419804094758317E-4</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13">
         <v>5.5130021490081118E-3</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13">
         <v>2.7942103278211922E-5</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13">
         <v>2.2248899463949562E-4</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13">
         <v>-1.1242965599070256E-4</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13">
         <v>9.6669038247804324E-4</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13">
         <v>7.2779190092072711E-4</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13">
         <v>2.0887464091648867E-4</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13">
         <v>-1.0080278769336679E-4</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13">
         <v>-3.1376769031876087E-4</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13">
         <v>2.7557204290091586E-4</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13">
         <v>-6.1336507491059969E-5</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13">
         <v>-9.8520291701185286E-4</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13">
         <v>-1.6182372616614649E-5</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13">
         <v>2.3043868163309854E-2</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="32">
         <v>0.10674247531543229</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14">
         <v>-1.1223152980773463E-3</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14">
         <v>-1.4967593666717627E-5</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14">
         <v>7.6333672694247788E-7</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14">
         <v>-9.302101170335132E-4</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14">
         <v>-1.3587371680241979E-3</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14">
         <v>-8.0438825517935297E-4</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14">
         <v>-7.0974464891498251E-4</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14">
         <v>-1.6035398544078389E-3</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14">
         <v>-1.8103440700778465E-3</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14">
         <v>-9.6854193660534695E-4</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14">
         <v>-9.0391656871062834E-4</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14">
         <v>2.7942103278211922E-5</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14">
         <v>1.3636301774923741E-2</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14">
         <v>6.3187841137775039E-3</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14">
         <v>6.3467338927493946E-3</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14">
         <v>6.484098539367671E-3</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14">
         <v>6.2216487040963348E-3</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14">
         <v>6.2388590563784204E-3</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14">
         <v>6.2063808620251015E-3</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14">
         <v>6.2566892876899849E-3</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14">
         <v>6.0752527509914719E-3</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14">
         <v>6.2497810340332383E-3</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14">
         <v>6.4734111243476495E-3</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14">
         <v>-1.1982921516221872E-4</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14">
         <v>-3.5310704719598049E-3</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="32">
         <v>7.3100877969485029E-2</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15">
         <v>-9.6977154230064007E-4</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15">
         <v>-2.7865907539978418E-4</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15">
         <v>2.6031670347763662E-6</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15">
         <v>-7.9644850038100849E-4</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15">
         <v>-1.1324424324124305E-3</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15">
         <v>-8.5991425687565598E-4</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15">
         <v>-7.6390765519557084E-4</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15">
         <v>-1.089136412869918E-3</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15">
         <v>-1.6232059776211654E-3</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15">
         <v>-9.8699403237044285E-4</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15">
         <v>-3.506031776772528E-4</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15">
         <v>2.2248899463949562E-4</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15">
         <v>6.3187841137775039E-3</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15">
         <v>9.5605720667032209E-3</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15">
         <v>6.2759849061998461E-3</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15">
         <v>6.3985245046848591E-3</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15">
         <v>6.1461875710263677E-3</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15">
         <v>6.1713702091652899E-3</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15">
         <v>6.1834544134799219E-3</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15">
         <v>6.2085953433352655E-3</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15">
         <v>6.1690571422514089E-3</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15">
         <v>6.1388008934532678E-3</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15">
         <v>6.4085606546188667E-3</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15">
         <v>-1.1027797022312627E-4</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15">
         <v>5.1767758208523355E-3</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="32">
         <v>3.7087514528090219E-2</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16">
         <v>-1.0505430335315006E-3</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16">
         <v>-2.1335548277230665E-4</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16">
         <v>2.2101478824450532E-6</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16">
         <v>-2.2610959874128805E-4</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16">
         <v>-8.3099240809198318E-4</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16">
         <v>-7.7369835934811004E-4</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16">
         <v>-7.5595401034161784E-4</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16">
         <v>-1.4193572571806149E-3</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16">
         <v>-1.8739240094877152E-3</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16">
         <v>-9.7426323191455305E-4</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16">
         <v>-7.5015555477096416E-4</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16">
         <v>-1.1242965599070256E-4</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16">
         <v>6.3467338927493946E-3</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16">
         <v>6.2759849061998461E-3</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16">
         <v>1.1930671009202075E-2</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16">
         <v>6.383143450968352E-3</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16">
         <v>6.1386913175427629E-3</v>
       </c>
-      <c r="T16" s="34">
+      <c r="T16">
         <v>6.1670268110526859E-3</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16">
         <v>6.1229982086120436E-3</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16">
         <v>6.1973127967772206E-3</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16">
         <v>6.0350190621002121E-3</v>
       </c>
-      <c r="X16" s="34">
+      <c r="X16">
         <v>6.2395324423073694E-3</v>
       </c>
-      <c r="Y16" s="34">
+      <c r="Y16">
         <v>6.3849348588932969E-3</v>
       </c>
-      <c r="Z16" s="34">
+      <c r="Z16">
         <v>-8.8403765459812018E-5</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="AA16">
         <v>2.1781226750700253E-3</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="32">
         <v>7.1192044273358138E-2</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17">
         <v>-1.1228933477797362E-3</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17">
         <v>-1.0446621301676146E-4</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17">
         <v>1.3163492486042787E-6</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17">
         <v>-7.9887500822674936E-4</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17">
         <v>-1.3077878228184756E-3</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17">
         <v>-7.1373099007466384E-4</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17">
         <v>-1.2386099048238546E-3</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17">
         <v>-1.6464685889413262E-3</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17">
         <v>-1.7161624771508521E-3</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17">
         <v>-1.1953798275334878E-3</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17">
         <v>-6.701979314631748E-4</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17">
         <v>9.6669038247804324E-4</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17">
         <v>6.484098539367671E-3</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17">
         <v>6.3985245046848591E-3</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17">
         <v>6.383143450968352E-3</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17">
         <v>1.2636690292341766E-2</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17">
         <v>6.3062395492096491E-3</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17">
         <v>6.2879637623628575E-3</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17">
         <v>6.2756563437694392E-3</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17">
         <v>6.3304581950769804E-3</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17">
         <v>6.0814954514441634E-3</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17">
         <v>6.2756651679774789E-3</v>
       </c>
-      <c r="Y17" s="34">
+      <c r="Y17">
         <v>6.484309304556745E-3</v>
       </c>
-      <c r="Z17" s="34">
+      <c r="Z17">
         <v>-5.3875324720839771E-5</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17">
         <v>-1.3333834339661257E-3</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="32">
         <v>9.1774556584845679E-2</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18">
         <v>-8.7914063620637842E-4</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18">
         <v>1.4947129033945905E-4</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18">
         <v>-5.2494189987733163E-7</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18">
         <v>-7.4910617256294303E-4</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18">
         <v>-1.2447091489569872E-3</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18">
         <v>-8.3048053178542275E-4</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18">
         <v>-9.2453804945999939E-4</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18">
         <v>-1.3443442665422075E-3</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18">
         <v>-1.2791515902054497E-3</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18">
         <v>-8.1649814137021472E-4</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18">
         <v>-7.8352116257917291E-4</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18">
         <v>7.2779190092072711E-4</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18">
         <v>6.2216487040963348E-3</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18">
         <v>6.1461875710263677E-3</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18">
         <v>6.1386913175427629E-3</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18">
         <v>6.3062395492096491E-3</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18">
         <v>1.2288752889960248E-2</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18">
         <v>6.0907970133329088E-3</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18">
         <v>6.0785332576515109E-3</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18">
         <v>6.104564117250702E-3</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18">
         <v>6.1127303582588829E-3</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18">
         <v>6.054297947392537E-3</v>
       </c>
-      <c r="Y18" s="34">
+      <c r="Y18">
         <v>6.2839101240053964E-3</v>
       </c>
-      <c r="Z18" s="34">
+      <c r="Z18">
         <v>-6.9536521039056091E-5</v>
       </c>
-      <c r="AA18" s="34">
+      <c r="AA18">
         <v>-9.8369692434824643E-3</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="32">
         <v>3.666995448424797E-3</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19">
         <v>-9.3352143161481386E-4</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19">
         <v>-1.176839738954924E-4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19">
         <v>1.2499769877597237E-6</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19">
         <v>-7.2499227720574755E-4</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19">
         <v>-1.2045507416549046E-3</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19">
         <v>-6.9923007595987935E-4</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19">
         <v>-4.7451226847221653E-4</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19">
         <v>-1.1490540189095684E-3</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19">
         <v>-1.1789262352315238E-3</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19">
         <v>-5.1137651422349453E-4</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19">
         <v>-4.9048556460376536E-4</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19">
         <v>2.0887464091648867E-4</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19">
         <v>6.2388590563784204E-3</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19">
         <v>6.1713702091652899E-3</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19">
         <v>6.1670268110526859E-3</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19">
         <v>6.2879637623628575E-3</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19">
         <v>6.0907970133329088E-3</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19">
         <v>1.0524358761368644E-2</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19">
         <v>6.1159901172551552E-3</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19">
         <v>6.1460641310816617E-3</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19">
         <v>6.0854226008676352E-3</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19">
         <v>6.0828672622426326E-3</v>
       </c>
-      <c r="Y19" s="34">
+      <c r="Y19">
         <v>6.3412337649448383E-3</v>
       </c>
-      <c r="Z19" s="34">
+      <c r="Z19">
         <v>-6.3606045365400835E-5</v>
       </c>
-      <c r="AA19" s="34">
+      <c r="AA19">
         <v>-5.2675233469886987E-4</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="32">
         <v>2.8141847696361976E-2</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20">
         <v>-9.2842827215060958E-4</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20">
         <v>8.656331950143703E-6</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20">
         <v>1.9945614566154206E-7</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20">
         <v>-7.8458157429551134E-4</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20">
         <v>-1.0640617079114303E-3</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20">
         <v>-9.0330095586795348E-4</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20">
         <v>-3.9421494594178534E-4</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20">
         <v>-7.4196112058664589E-4</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20">
         <v>-1.1439955480957078E-3</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20">
         <v>-7.0717736955800553E-4</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20">
         <v>-5.1113564351517281E-4</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20">
         <v>-1.0080278769336679E-4</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20">
         <v>6.2063808620251015E-3</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20">
         <v>6.1834544134799219E-3</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20">
         <v>6.1229982086120436E-3</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20">
         <v>6.2756563437694392E-3</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S20">
         <v>6.0785332576515109E-3</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20">
         <v>6.1159901172551552E-3</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20">
         <v>9.0468104957243372E-3</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20">
         <v>6.156148144414752E-3</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20">
         <v>6.0957443409715229E-3</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X20">
         <v>6.0536034462398743E-3</v>
       </c>
-      <c r="Y20" s="34">
+      <c r="Y20">
         <v>6.286325935355639E-3</v>
       </c>
-      <c r="Z20" s="34">
+      <c r="Z20">
         <v>-8.3288630561775489E-5</v>
       </c>
-      <c r="AA20" s="34">
+      <c r="AA20">
         <v>-3.8961506060708681E-3</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="32">
         <v>9.5959576303988922E-2</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21">
         <v>-1.0727655139075175E-3</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21">
         <v>-1.1805153421513143E-4</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21">
         <v>1.0445862294921541E-6</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21">
         <v>-7.57781052438216E-4</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21">
         <v>-1.0819582759533763E-3</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21">
         <v>-7.8278096326773322E-4</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21">
         <v>-2.7774314878253707E-4</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21">
         <v>-1.0479285992233229E-3</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21">
         <v>-1.0992137209090199E-3</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21">
         <v>-4.9147433447011522E-4</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21">
         <v>-2.9461694339657542E-4</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21">
         <v>-3.1376769031876087E-4</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21">
         <v>6.2566892876899849E-3</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21">
         <v>6.2085953433352655E-3</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21">
         <v>6.1973127967772206E-3</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21">
         <v>6.3304581950769804E-3</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21">
         <v>6.104564117250702E-3</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21">
         <v>6.1460641310816617E-3</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21">
         <v>6.156148144414752E-3</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21">
         <v>1.0519646753040839E-2</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21">
         <v>6.1997193886288941E-3</v>
       </c>
-      <c r="X21" s="34">
+      <c r="X21">
         <v>6.0817677762625613E-3</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21">
         <v>6.4480577326991237E-3</v>
       </c>
-      <c r="Z21" s="34">
+      <c r="Z21">
         <v>-6.8776728364438146E-5</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="AA21">
         <v>3.8082598894943406E-4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="32">
         <v>0.25333184317244201</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22">
         <v>8.7502992189434606E-5</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22">
         <v>1.7310758812209403E-4</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22">
         <v>-1.266969108587403E-6</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22">
         <v>-3.9447484228381449E-4</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22">
         <v>-1.1300135076368716E-3</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22">
         <v>-9.6628933039205871E-4</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22">
         <v>-1.1181749476991978E-3</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22">
         <v>-1.1835509532736332E-3</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22">
         <v>5.7044537127577406E-4</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22">
         <v>-8.0051485640665978E-4</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22">
         <v>-2.4769165915266948E-4</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22">
         <v>2.7557204290091586E-4</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22">
         <v>6.0752527509914719E-3</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22">
         <v>6.1690571422514089E-3</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22">
         <v>6.0350190621002121E-3</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R22">
         <v>6.0814954514441634E-3</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22">
         <v>6.1127303582588829E-3</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T22">
         <v>6.0854226008676352E-3</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22">
         <v>6.0957443409715229E-3</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22">
         <v>6.1997193886288941E-3</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22">
         <v>1.9126434102094244E-2</v>
       </c>
-      <c r="X22" s="34">
+      <c r="X22">
         <v>5.9335900790576076E-3</v>
       </c>
-      <c r="Y22" s="34">
+      <c r="Y22">
         <v>6.5685738216608846E-3</v>
       </c>
-      <c r="Z22" s="34">
+      <c r="Z22">
         <v>7.717701332681518E-5</v>
       </c>
-      <c r="AA22" s="34">
+      <c r="AA22">
         <v>-1.1552532594079349E-2</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="32">
         <v>9.2048840468116275E-3</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23">
         <v>-9.3611420333887811E-4</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23">
         <v>-3.6873942937768606E-4</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23">
         <v>3.5657495840428098E-6</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23">
         <v>-6.5880459820107074E-4</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23">
         <v>-1.0302537563456494E-3</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23">
         <v>-8.5682352009716634E-4</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23">
         <v>-6.9107199134241411E-4</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23">
         <v>-1.3336006550246039E-3</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23">
         <v>-1.5113309845894542E-3</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23">
         <v>-6.5937256038867131E-4</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23">
         <v>-6.4259483046158472E-4</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23">
         <v>-6.1336507491059969E-5</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23">
         <v>6.2497810340332383E-3</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23">
         <v>6.1388008934532678E-3</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23">
         <v>6.2395324423073694E-3</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23">
         <v>6.2756651679774789E-3</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23">
         <v>6.054297947392537E-3</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23">
         <v>6.0828672622426326E-3</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23">
         <v>6.0536034462398743E-3</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23">
         <v>6.0817677762625613E-3</v>
       </c>
-      <c r="W23" s="34">
+      <c r="W23">
         <v>5.9335900790576076E-3</v>
       </c>
-      <c r="X23" s="34">
+      <c r="X23">
         <v>1.1594514165932383E-2</v>
       </c>
-      <c r="Y23" s="34">
+      <c r="Y23">
         <v>6.3039161934510674E-3</v>
       </c>
-      <c r="Z23" s="34">
+      <c r="Z23">
         <v>-1.1236144612019267E-4</v>
       </c>
-      <c r="AA23" s="34">
+      <c r="AA23">
         <v>7.0739316356025188E-3</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="32">
         <v>5.8626673685683341E-3</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24">
         <v>-1.0451481553379106E-3</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24">
         <v>5.2635472047871112E-4</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24">
         <v>-3.5642553969686104E-6</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24">
         <v>-7.1312168569536685E-4</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24">
         <v>-1.5279460611584551E-3</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24">
         <v>-1.1817148465451989E-3</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24">
         <v>-8.9813422056371842E-4</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24">
         <v>-1.9848743687250325E-3</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24">
         <v>-1.6775131031238292E-3</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24">
         <v>-1.4054955486078602E-3</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24">
         <v>-1.1574890822205804E-3</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24">
         <v>-9.8520291701185286E-4</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24">
         <v>6.4734111243476495E-3</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24">
         <v>6.4085606546188667E-3</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24">
         <v>6.3849348588932969E-3</v>
       </c>
-      <c r="R24" s="34">
+      <c r="R24">
         <v>6.484309304556745E-3</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24">
         <v>6.2839101240053964E-3</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24">
         <v>6.3412337649448383E-3</v>
       </c>
-      <c r="U24" s="34">
+      <c r="U24">
         <v>6.286325935355639E-3</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24">
         <v>6.4480577326991237E-3</v>
       </c>
-      <c r="W24" s="34">
+      <c r="W24">
         <v>6.5685738216608846E-3</v>
       </c>
-      <c r="X24" s="34">
+      <c r="X24">
         <v>6.3039161934510674E-3</v>
       </c>
-      <c r="Y24" s="34">
+      <c r="Y24">
         <v>1.5661017020061604E-2</v>
       </c>
-      <c r="Z24" s="34">
+      <c r="Z24">
         <v>-8.3781100676136539E-5</v>
       </c>
-      <c r="AA24" s="34">
+      <c r="AA24">
         <v>-2.0449019422815073E-2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="32">
         <v>-3.0179673303067377E-2</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25">
         <v>4.766192419944739E-5</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25">
         <v>-1.8656487531624154E-5</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25">
         <v>5.0838640345171843E-8</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25">
         <v>3.92314503123293E-5</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25">
         <v>9.4240026682963557E-5</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25">
         <v>1.4084009302084985E-4</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25">
         <v>5.9035410140056933E-5</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25">
         <v>9.7552117649241251E-5</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25">
         <v>1.3577452641148988E-4</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25">
         <v>5.129455848593297E-5</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25">
         <v>5.7227685678200172E-5</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25">
         <v>-1.6182372616614649E-5</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25">
         <v>-1.1982921516221872E-4</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25">
         <v>-1.1027797022312627E-4</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25">
         <v>-8.8403765459812018E-5</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25">
         <v>-5.3875324720839771E-5</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25">
         <v>-6.9536521039056091E-5</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25">
         <v>-6.3606045365400835E-5</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25">
         <v>-8.3288630561775489E-5</v>
       </c>
-      <c r="V25" s="34">
+      <c r="V25">
         <v>-6.8776728364438146E-5</v>
       </c>
-      <c r="W25" s="34">
+      <c r="W25">
         <v>7.717701332681518E-5</v>
       </c>
-      <c r="X25" s="34">
+      <c r="X25">
         <v>-1.1236144612019267E-4</v>
       </c>
-      <c r="Y25" s="34">
+      <c r="Y25">
         <v>-8.3781100676136539E-5</v>
       </c>
-      <c r="Z25" s="34">
+      <c r="Z25">
         <v>5.536761451111759E-5</v>
       </c>
-      <c r="AA25" s="34">
+      <c r="AA25">
         <v>-1.3369772000940659E-5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="32">
         <v>-19.417277606123903</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26">
         <v>3.5851147417306529E-3</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26">
         <v>-9.4005488895271438E-2</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26">
         <v>7.2762956871307407E-4</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26">
         <v>2.5957831585412903E-3</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26">
         <v>5.4827588746037756E-3</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26">
         <v>1.9656472762889649E-2</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26">
         <v>-3.3165405792806885E-2</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26">
         <v>-6.2966414062320744E-3</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26">
         <v>-2.7758828910198236E-2</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26">
         <v>-1.1921935556896024E-2</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26">
         <v>-1.6699100810414896E-2</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26">
         <v>2.3043868163309854E-2</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26">
         <v>-3.5310704719598049E-3</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26">
         <v>5.1767758208523355E-3</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26">
         <v>2.1781226750700253E-3</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26">
         <v>-1.3333834339661257E-3</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26">
         <v>-9.8369692434824643E-3</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26">
         <v>-5.2675233469886987E-4</v>
       </c>
-      <c r="U26" s="34">
+      <c r="U26">
         <v>-3.8961506060708681E-3</v>
       </c>
-      <c r="V26" s="34">
+      <c r="V26">
         <v>3.8082598894943406E-4</v>
       </c>
-      <c r="W26" s="34">
+      <c r="W26">
         <v>-1.1552532594079349E-2</v>
       </c>
-      <c r="X26" s="34">
+      <c r="X26">
         <v>7.0739316356025188E-3</v>
       </c>
-      <c r="Y26" s="34">
+      <c r="Y26">
         <v>-2.0449019422815073E-2</v>
       </c>
-      <c r="Z26" s="34">
+      <c r="Z26">
         <v>-1.3369772000940659E-5</v>
       </c>
-      <c r="AA26" s="34">
+      <c r="AA26">
         <v>3.0131003499785489</v>
       </c>
     </row>
@@ -3231,2942 +3230,2942 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>4.9181493713062446E-3</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2">
         <v>8.2436049822342497E-4</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2">
         <v>2.0966887859369385E-4</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2">
         <v>-1.9869325360057724E-6</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2">
         <v>4.1408877922859269E-5</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2">
         <v>2.2199616176819483E-5</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2">
         <v>3.9784753478004783E-4</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2">
         <v>2.622875977988492E-4</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2">
         <v>3.5925969754528543E-5</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2">
         <v>1.4444192413217891E-4</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2">
         <v>2.4534583598886212E-4</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2">
         <v>1.6945408619855923E-4</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2">
         <v>1.4612253053687408E-4</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2">
         <v>-2.0514916684114296E-4</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2">
         <v>7.7027751942837023E-5</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2">
         <v>-9.975212358902789E-5</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2">
         <v>-3.4638327372697469E-5</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2">
         <v>-7.6931992293757497E-6</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2">
         <v>3.143489596303068E-5</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2">
         <v>-7.6069381875055374E-5</v>
       </c>
-      <c r="V2" s="34">
+      <c r="V2">
         <v>-8.1531594730052196E-5</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2">
         <v>-1.0346867526160602E-4</v>
       </c>
-      <c r="X2" s="34">
+      <c r="X2">
         <v>-7.3478655738558969E-5</v>
       </c>
-      <c r="Y2" s="34">
+      <c r="Y2">
         <v>-6.1080654434684969E-5</v>
       </c>
-      <c r="Z2" s="34">
+      <c r="Z2">
         <v>-5.9068081759810955E-5</v>
       </c>
-      <c r="AA2" s="34">
+      <c r="AA2">
         <v>-2.2467875140038806E-5</v>
       </c>
-      <c r="AB2" s="34">
+      <c r="AB2">
         <v>-3.7161321785579376E-5</v>
       </c>
-      <c r="AC2" s="34">
+      <c r="AC2">
         <v>-3.4448943207901668E-5</v>
       </c>
-      <c r="AD2" s="34">
+      <c r="AD2">
         <v>-8.9844674145945613E-5</v>
       </c>
-      <c r="AE2" s="34">
+      <c r="AE2">
         <v>1.2085323095572514E-5</v>
       </c>
-      <c r="AF2" s="34">
+      <c r="AF2">
         <v>-6.249558041045049E-3</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>0.67142927949651032</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3">
         <v>2.0966887859369385E-4</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3">
         <v>2.9595176688021162E-3</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3">
         <v>-2.4179638863591654E-5</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3">
         <v>-2.5358861631865313E-4</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3">
         <v>-3.44676675285812E-4</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3">
         <v>5.4717056376719312E-4</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3">
         <v>8.5324053731299695E-5</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3">
         <v>2.4070572392271791E-4</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3">
         <v>-1.0969394845037391E-4</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3">
         <v>-1.1132283537468313E-4</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3">
         <v>-2.2164093463139089E-4</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3">
         <v>-3.714550120062568E-4</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3">
         <v>-2.8402576334675411E-4</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3">
         <v>1.3605598248075793E-4</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3">
         <v>-1.9138611713307623E-4</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3">
         <v>-1.0995981482035515E-4</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3">
         <v>-6.9736021500287591E-5</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3">
         <v>3.6144736135003755E-5</v>
       </c>
-      <c r="U3" s="34">
+      <c r="U3">
         <v>2.55005833893103E-5</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3">
         <v>3.4792875842242985E-5</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3">
         <v>-8.6829509615552955E-5</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3">
         <v>-5.9899773932999695E-5</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3">
         <v>1.0718832265953215E-4</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3">
         <v>-1.9218239408584289E-4</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3">
         <v>1.7630287833594882E-5</v>
       </c>
-      <c r="AB3" s="34">
+      <c r="AB3">
         <v>5.6285297925688996E-5</v>
       </c>
-      <c r="AC3" s="34">
+      <c r="AC3">
         <v>1.0564338208283314E-4</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3">
         <v>1.5994221554627847E-4</v>
       </c>
-      <c r="AE3" s="34">
+      <c r="AE3">
         <v>2.5903156582405271E-5</v>
       </c>
-      <c r="AF3" s="34">
+      <c r="AF3">
         <v>-9.0101802220795169E-2</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="32">
         <v>-4.9623259001199222E-3</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4">
         <v>-1.9869325360057724E-6</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4">
         <v>-2.4179638863591654E-5</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4">
         <v>1.9885203956338384E-7</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4">
         <v>2.041017068489027E-6</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4">
         <v>2.7532215863055776E-6</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4">
         <v>-5.6914790373778027E-6</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4">
         <v>-6.9493660291165596E-7</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4">
         <v>-2.0614737833789074E-6</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4">
         <v>7.0831450755097107E-7</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4">
         <v>6.7285241663341645E-7</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4">
         <v>1.5368476529651465E-6</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4">
         <v>2.8432610190660886E-6</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4">
         <v>2.2115577939563618E-6</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4">
         <v>-1.5401073126277617E-6</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4">
         <v>1.5682674585355224E-6</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4">
         <v>8.1841005749213888E-7</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4">
         <v>6.2259901012285724E-7</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4">
         <v>-4.0614411358897806E-7</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4">
         <v>-3.7766617261648699E-7</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4">
         <v>-4.184135688729498E-7</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4">
         <v>6.0276260526985893E-7</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4">
         <v>3.6656463955331005E-7</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4">
         <v>-9.9814261020534875E-7</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4">
         <v>1.398068167152413E-6</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4">
         <v>-3.4428347065719401E-7</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4">
         <v>-6.2217366941581169E-7</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AC4">
         <v>-1.0182122850164928E-6</v>
       </c>
-      <c r="AD4" s="34">
+      <c r="AD4">
         <v>-1.389398706472131E-6</v>
       </c>
-      <c r="AE4" s="34">
+      <c r="AE4">
         <v>-2.5161165034456132E-7</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AF4">
         <v>7.3297327156767464E-4</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="32">
         <v>-6.7844170491955513E-2</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5">
         <v>4.1408877922859269E-5</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5">
         <v>-2.5358861631865313E-4</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5">
         <v>2.041017068489027E-6</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5">
         <v>1.1188820635257264E-3</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5">
         <v>8.0725388186323485E-4</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5">
         <v>-1.3585282757788002E-5</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5">
         <v>2.8180388795724752E-5</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5">
         <v>-7.3251506998210335E-5</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5">
         <v>6.267282804489498E-5</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5">
         <v>8.540976907752307E-5</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5">
         <v>1.5452374128968865E-4</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5">
         <v>3.3653696391155801E-4</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5">
         <v>7.8105623950598042E-6</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5">
         <v>-1.822865031072043E-5</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5">
         <v>2.7945475826729872E-4</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5">
         <v>1.1804426369269738E-4</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5">
         <v>-9.5204816640091804E-5</v>
       </c>
-      <c r="T5" s="34">
+      <c r="T5">
         <v>-2.6104291972460047E-4</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5">
         <v>-1.8192352042595904E-4</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5">
         <v>-1.6369116942633612E-4</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5">
         <v>-1.1044873132196295E-4</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5">
         <v>-1.9519920751484354E-4</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5">
         <v>-1.3568820330828743E-4</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5">
         <v>-1.0612947769279889E-4</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5">
         <v>-8.6902607109146893E-5</v>
       </c>
-      <c r="AB5" s="34">
+      <c r="AB5">
         <v>-1.5961324983134254E-4</v>
       </c>
-      <c r="AC5" s="34">
+      <c r="AC5">
         <v>-2.1596422838458926E-4</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AD5">
         <v>-2.0742461688023512E-4</v>
       </c>
-      <c r="AE5" s="34">
+      <c r="AE5">
         <v>4.9307358700622213E-6</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AF5">
         <v>6.8903590998344866E-3</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="32">
         <v>-0.18333964298454053</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6">
         <v>2.2199616176819483E-5</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6">
         <v>-3.44676675285812E-4</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6">
         <v>2.7532215863055776E-6</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6">
         <v>8.0725388186323485E-4</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6">
         <v>1.6363008814443E-3</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6">
         <v>-3.0759460038767681E-5</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6">
         <v>-7.4521211973920499E-5</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6">
         <v>-1.4806887083086454E-4</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6">
         <v>1.9167457657469846E-4</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6">
         <v>2.2122683503064062E-4</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6">
         <v>3.7289000716456556E-4</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6">
         <v>6.6034124569254774E-4</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6">
         <v>-3.6956867327813983E-5</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6">
         <v>-1.5698006781295839E-5</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6">
         <v>3.7341268447531784E-4</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6">
         <v>1.3032892315599092E-4</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6">
         <v>2.5821786111076335E-5</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6">
         <v>-1.8224379570914594E-4</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6">
         <v>-2.4735186694622752E-4</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6">
         <v>-1.6742430249840827E-4</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6">
         <v>-1.8305346508035782E-4</v>
       </c>
-      <c r="X6" s="34">
+      <c r="X6">
         <v>-2.5192198060492197E-4</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6">
         <v>-1.7458218281185078E-4</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6">
         <v>-1.160654570843116E-4</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6">
         <v>-9.0662847837624753E-5</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6">
         <v>-2.1441992378216186E-4</v>
       </c>
-      <c r="AC6" s="34">
+      <c r="AC6">
         <v>-1.7203816291442361E-4</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AD6">
         <v>-2.9325538905207948E-4</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6">
         <v>1.7901698413753382E-5</v>
       </c>
-      <c r="AF6" s="34">
+      <c r="AF6">
         <v>9.3545274009257488E-3</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="32">
         <v>0.44735092763355672</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7">
         <v>3.9784753478004783E-4</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7">
         <v>5.4717056376719312E-4</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7">
         <v>-5.6914790373778027E-6</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7">
         <v>-1.3585282757788002E-5</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7">
         <v>-3.0759460038767681E-5</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7">
         <v>2.4587575600256008E-3</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7">
         <v>4.0894467706355432E-4</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7">
         <v>-8.03104206374418E-4</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7">
         <v>2.5483618249365206E-4</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7">
         <v>3.1366478034589485E-4</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7">
         <v>2.7478214565182003E-4</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7">
         <v>1.4127595216862526E-4</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7">
         <v>6.0492436607452655E-5</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7">
         <v>-6.3872259072622216E-5</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7">
         <v>-7.3307979504811944E-5</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7">
         <v>-2.5911284146513179E-5</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7">
         <v>7.4196959644530513E-6</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7">
         <v>1.7165213918793592E-4</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7">
         <v>1.3303214031697825E-4</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7">
         <v>1.3268791745874443E-4</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7">
         <v>9.7592703983916378E-5</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7">
         <v>1.4860511587423491E-4</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7">
         <v>1.3066039390154344E-4</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7">
         <v>1.062509609420911E-4</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7">
         <v>1.8035544066457069E-4</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7">
         <v>1.486528170439763E-4</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7">
         <v>2.0117366412378528E-4</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7">
         <v>1.5988749291411669E-4</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7">
         <v>4.5684877710700376E-5</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7">
         <v>-1.4088261015994856E-2</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="32">
         <v>0.48971204159119092</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8">
         <v>2.622875977988492E-4</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8">
         <v>8.5324053731299695E-5</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8">
         <v>-6.9493660291165596E-7</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8">
         <v>2.8180388795724752E-5</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8">
         <v>-7.4521211973920499E-5</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8">
         <v>4.0894467706355432E-4</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8">
         <v>2.6273111975469265E-3</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8">
         <v>-1.9046665029418229E-3</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8">
         <v>9.9484777324088331E-4</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8">
         <v>1.4157635351725014E-3</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8">
         <v>1.6076219061194321E-3</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8">
         <v>1.60884578960429E-3</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8">
         <v>-1.1911509550749768E-3</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8">
         <v>-1.3225869117182887E-4</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8">
         <v>4.4603316405215573E-4</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8">
         <v>1.0458038504423981E-4</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8">
         <v>-5.2028565978184428E-5</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8">
         <v>-9.8978968027259914E-5</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8">
         <v>-1.517411331257879E-5</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8">
         <v>-2.0973230677165746E-4</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8">
         <v>-5.6908694424434884E-5</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8">
         <v>6.2785480839022342E-6</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8">
         <v>-7.0161207357967827E-5</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="Z8">
         <v>-4.0805767119041561E-5</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8">
         <v>3.6547604034029122E-5</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8">
         <v>-2.2615461207891457E-6</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AC8">
         <v>-1.2603095448221902E-4</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8">
         <v>-8.0807010174329709E-5</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8">
         <v>-1.4335393541512875E-5</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8">
         <v>-4.3581550664175787E-3</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="32">
         <v>-0.1412305119431724</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9">
         <v>3.5925969754528543E-5</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9">
         <v>2.4070572392271791E-4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9">
         <v>-2.0614737833789074E-6</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9">
         <v>-7.3251506998210335E-5</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9">
         <v>-1.4806887083086454E-4</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9">
         <v>-8.03104206374418E-4</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9">
         <v>-1.9046665029418229E-3</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9">
         <v>5.2163069079147568E-3</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9">
         <v>-1.0638535311091419E-3</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9">
         <v>-1.065935768675213E-3</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9">
         <v>-1.0702354927285495E-3</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9">
         <v>-1.09051020218787E-3</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9">
         <v>2.6552119790931367E-4</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9">
         <v>5.8333388075731488E-5</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9">
         <v>-1.3292778416474217E-4</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9">
         <v>1.8560650472442669E-5</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9">
         <v>-1.5185898821099765E-4</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9">
         <v>1.5727327302774504E-4</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9">
         <v>1.5863567682737601E-4</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9">
         <v>2.7582550609975986E-4</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9">
         <v>7.9652623033372224E-6</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9">
         <v>5.6982657024228769E-5</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9">
         <v>1.2577496146109481E-4</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9">
         <v>1.3391360093581092E-4</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9">
         <v>1.121075031382874E-4</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9">
         <v>7.3872924148294565E-5</v>
       </c>
-      <c r="AC9" s="34">
+      <c r="AC9">
         <v>2.5822694471713651E-4</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9">
         <v>-4.897957596414421E-5</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9">
         <v>1.6216016120824353E-5</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9">
         <v>-5.9170451228001061E-3</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="32">
         <v>0.16264912298951995</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10">
         <v>1.4444192413217891E-4</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10">
         <v>-1.0969394845037391E-4</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10">
         <v>7.0831450755097107E-7</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10">
         <v>6.267282804489498E-5</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10">
         <v>1.9167457657469846E-4</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10">
         <v>2.5483618249365206E-4</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10">
         <v>9.9484777324088331E-4</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10">
         <v>-1.0638535311091419E-3</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10">
         <v>4.7762879146408923E-3</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10">
         <v>3.6725694486607128E-3</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10">
         <v>3.8982684162735246E-3</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10">
         <v>3.9459176033247341E-3</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10">
         <v>1.8273337732674155E-4</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10">
         <v>-3.077897404641519E-4</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10">
         <v>-1.4824100033374943E-4</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10">
         <v>4.3137971091120091E-4</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10">
         <v>4.3937555496938229E-4</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10">
         <v>-1.0045764365761156E-4</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10">
         <v>-1.426402226622893E-4</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10">
         <v>2.0411848846340458E-5</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10">
         <v>-1.2500313090868173E-4</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10">
         <v>-8.4210110233753259E-5</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10">
         <v>-8.2585742942340931E-5</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="Z10">
         <v>-1.3520429948424674E-4</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AA10">
         <v>-7.0554837364963843E-5</v>
       </c>
-      <c r="AB10" s="34">
+      <c r="AB10">
         <v>-2.5685639886630497E-4</v>
       </c>
-      <c r="AC10" s="34">
+      <c r="AC10">
         <v>-2.135607467002754E-4</v>
       </c>
-      <c r="AD10" s="34">
+      <c r="AD10">
         <v>-2.3370356002781669E-4</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10">
         <v>-1.1510188639556141E-5</v>
       </c>
-      <c r="AF10" s="34">
+      <c r="AF10">
         <v>9.7253994840361402E-5</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="32">
         <v>0.115070387815754</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11">
         <v>2.4534583598886212E-4</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11">
         <v>-1.1132283537468313E-4</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11">
         <v>6.7285241663341645E-7</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11">
         <v>8.540976907752307E-5</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11">
         <v>2.2122683503064062E-4</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11">
         <v>3.1366478034589485E-4</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11">
         <v>1.4157635351725014E-3</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11">
         <v>-1.065935768675213E-3</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11">
         <v>3.6725694486607128E-3</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11">
         <v>5.1913169596377925E-3</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11">
         <v>4.3810032718272973E-3</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11">
         <v>4.4339530403075585E-3</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11">
         <v>2.9034118131560668E-4</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11">
         <v>-3.8910017739538004E-4</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11">
         <v>3.3178981670139421E-4</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11">
         <v>5.3223834446905276E-4</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11">
         <v>5.1269152002512009E-4</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11">
         <v>-9.3572469280081691E-5</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11">
         <v>-2.3644079712982404E-4</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11">
         <v>-2.9703182050490372E-4</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11">
         <v>-3.4820183834264251E-4</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11">
         <v>-2.6781664220354049E-4</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11">
         <v>-3.4271291312069018E-4</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11">
         <v>-3.1873603626699203E-4</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11">
         <v>-2.3711454289266406E-4</v>
       </c>
-      <c r="AB11" s="34">
+      <c r="AB11">
         <v>-4.9095707941821894E-4</v>
       </c>
-      <c r="AC11" s="34">
+      <c r="AC11">
         <v>-4.1625529208927435E-4</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11">
         <v>-3.4810836851298941E-4</v>
       </c>
-      <c r="AE11" s="34">
+      <c r="AE11">
         <v>-1.2965149556274193E-5</v>
       </c>
-      <c r="AF11" s="34">
+      <c r="AF11">
         <v>-9.0968395692059278E-5</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="32">
         <v>0.15563432985140516</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12">
         <v>1.6945408619855923E-4</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12">
         <v>-2.2164093463139089E-4</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12">
         <v>1.5368476529651465E-6</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12">
         <v>1.5452374128968865E-4</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12">
         <v>3.7289000716456556E-4</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12">
         <v>2.7478214565182003E-4</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12">
         <v>1.6076219061194321E-3</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12">
         <v>-1.0702354927285495E-3</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12">
         <v>3.8982684162735246E-3</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12">
         <v>4.3810032718272973E-3</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12">
         <v>5.4813273464341047E-3</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12">
         <v>4.9202023696624346E-3</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12">
         <v>4.4497045840077165E-4</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12">
         <v>-4.5440571151051333E-4</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12">
         <v>6.5484513260186377E-4</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12">
         <v>7.8351915369490304E-4</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12">
         <v>5.707463088458751E-4</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12">
         <v>-1.6427331791228346E-4</v>
       </c>
-      <c r="U12" s="34">
+      <c r="U12">
         <v>-5.4209929451662277E-5</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12">
         <v>4.2070345707164781E-5</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12">
         <v>-1.1790689310424841E-4</v>
       </c>
-      <c r="X12" s="34">
+      <c r="X12">
         <v>-1.0574664720224914E-4</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12">
         <v>-1.1849830902471888E-4</v>
       </c>
-      <c r="Z12" s="34">
+      <c r="Z12">
         <v>-1.0274270756530134E-4</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12">
         <v>1.9968171614645437E-5</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12">
         <v>-2.1696186308960011E-4</v>
       </c>
-      <c r="AC12" s="34">
+      <c r="AC12">
         <v>-2.7460011253608164E-4</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12">
         <v>-1.4742198963672718E-4</v>
       </c>
-      <c r="AE12" s="34">
+      <c r="AE12">
         <v>-1.6675836028256493E-5</v>
       </c>
-      <c r="AF12" s="34">
+      <c r="AF12">
         <v>2.73415883178664E-3</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="32">
         <v>0.3243556774350036</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13">
         <v>1.4612253053687408E-4</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13">
         <v>-3.714550120062568E-4</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13">
         <v>2.8432610190660886E-6</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13">
         <v>3.3653696391155801E-4</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13">
         <v>6.6034124569254774E-4</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13">
         <v>1.4127595216862526E-4</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13">
         <v>1.60884578960429E-3</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13">
         <v>-1.09051020218787E-3</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13">
         <v>3.9459176033247341E-3</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13">
         <v>4.4339530403075585E-3</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13">
         <v>4.9202023696624346E-3</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13">
         <v>5.5545741657199096E-3</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13">
         <v>4.26544461482632E-4</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13">
         <v>-4.4279953211586614E-4</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13">
         <v>8.4601402403584967E-4</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13">
         <v>8.8166730670927987E-4</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13">
         <v>6.365187794725582E-4</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13">
         <v>-1.1833342735106511E-4</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13">
         <v>-8.0172851805283525E-5</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13">
         <v>4.4193219023757127E-5</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13">
         <v>-1.2075829313652471E-4</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13">
         <v>-7.5606659453516731E-5</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13">
         <v>-1.9652090876165138E-4</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13">
         <v>-1.6916382109723963E-4</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13">
         <v>-8.2347892081545328E-6</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13">
         <v>-2.6532005917264951E-4</v>
       </c>
-      <c r="AC13" s="34">
+      <c r="AC13">
         <v>-3.5388740733746172E-4</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AD13">
         <v>-2.6841054013949581E-4</v>
       </c>
-      <c r="AE13" s="34">
+      <c r="AE13">
         <v>-1.6670747355147055E-5</v>
       </c>
-      <c r="AF13" s="34">
+      <c r="AF13">
         <v>6.740657660800134E-3</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="32">
         <v>-9.9404396241187173E-3</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14">
         <v>-2.0514916684114296E-4</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14">
         <v>-2.8402576334675411E-4</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14">
         <v>2.2115577939563618E-6</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14">
         <v>7.8105623950598042E-6</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14">
         <v>-3.6956867327813983E-5</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14">
         <v>6.0492436607452655E-5</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14">
         <v>-1.1911509550749768E-3</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14">
         <v>2.6552119790931367E-4</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14">
         <v>1.8273337732674155E-4</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14">
         <v>2.9034118131560668E-4</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14">
         <v>4.4497045840077165E-4</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14">
         <v>4.26544461482632E-4</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14">
         <v>3.9136533024912599E-3</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14">
         <v>-1.0976427230920229E-5</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14">
         <v>3.0943128633224696E-5</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14">
         <v>-7.4310275020810635E-5</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14">
         <v>3.3950336542448994E-4</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14">
         <v>-3.1056051544668824E-5</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14">
         <v>-1.252670570871844E-4</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14">
         <v>7.0418787797501864E-5</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14">
         <v>1.3098311645166704E-4</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14">
         <v>-6.8365858644230777E-5</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14">
         <v>-8.7721870927583222E-6</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14">
         <v>1.838485033698944E-5</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14">
         <v>-3.2902608608449083E-5</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14">
         <v>-1.085350091341349E-4</v>
       </c>
-      <c r="AC14" s="34">
+      <c r="AC14">
         <v>-2.758693810035026E-4</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14">
         <v>-2.2014887042754339E-4</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14">
         <v>4.1151795873663889E-6</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14">
         <v>8.7379869150512844E-3</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="32">
         <v>2.8131496894849378E-2</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15">
         <v>7.7027751942837023E-5</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15">
         <v>1.3605598248075793E-4</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15">
         <v>-1.5401073126277617E-6</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15">
         <v>-1.822865031072043E-5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15">
         <v>-1.5698006781295839E-5</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15">
         <v>-6.3872259072622216E-5</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15">
         <v>-1.3225869117182887E-4</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15">
         <v>5.8333388075731488E-5</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15">
         <v>-3.077897404641519E-4</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15">
         <v>-3.8910017739538004E-4</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15">
         <v>-4.5440571151051333E-4</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15">
         <v>-4.4279953211586614E-4</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15">
         <v>-1.0976427230920229E-5</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15">
         <v>1.3788069314707501E-3</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15">
         <v>8.2389160182806269E-5</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15">
         <v>-4.6053378364637756E-4</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15">
         <v>3.0448981610596895E-4</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15">
         <v>-9.2440176628251361E-6</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15">
         <v>-6.205045268763414E-5</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15">
         <v>-4.6979180326338658E-5</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15">
         <v>-1.6767464367412359E-6</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15">
         <v>-2.0075128717382497E-5</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15">
         <v>-7.353505803267611E-5</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15">
         <v>-2.7399835660113156E-5</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15">
         <v>-9.4973951216382937E-5</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15">
         <v>-8.590133107477956E-5</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15">
         <v>2.9922424732516887E-5</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15">
         <v>2.2381140285126101E-5</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15">
         <v>2.0896446927927255E-5</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15">
         <v>-2.7032700401753845E-3</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="32">
         <v>-0.12969463509301024</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16">
         <v>-9.975212358902789E-5</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16">
         <v>-1.9138611713307623E-4</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16">
         <v>1.5682674585355224E-6</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16">
         <v>2.7945475826729872E-4</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16">
         <v>3.7341268447531784E-4</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16">
         <v>-7.3307979504811944E-5</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16">
         <v>4.4603316405215573E-4</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16">
         <v>-1.3292778416474217E-4</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16">
         <v>-1.4824100033374943E-4</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16">
         <v>3.3178981670139421E-4</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16">
         <v>6.5484513260186377E-4</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16">
         <v>8.4601402403584967E-4</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16">
         <v>3.0943128633224696E-5</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16">
         <v>8.2389160182806269E-5</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16">
         <v>0.15013213831577246</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16">
         <v>4.8891522420214906E-4</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16">
         <v>6.0390746472973071E-5</v>
       </c>
-      <c r="T16" s="34">
+      <c r="T16">
         <v>-1.7398193385472632E-5</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16">
         <v>2.2975029636909292E-4</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16">
         <v>3.3131871298212336E-4</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16">
         <v>3.6157000961158786E-4</v>
       </c>
-      <c r="X16" s="34">
+      <c r="X16">
         <v>1.2462522523835201E-4</v>
       </c>
-      <c r="Y16" s="34">
+      <c r="Y16">
         <v>2.9097214330650362E-4</v>
       </c>
-      <c r="Z16" s="34">
+      <c r="Z16">
         <v>1.1479615284428575E-4</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="AA16">
         <v>2.0853566533910253E-4</v>
       </c>
-      <c r="AB16" s="34">
+      <c r="AB16">
         <v>2.7524000968497542E-4</v>
       </c>
-      <c r="AC16" s="34">
+      <c r="AC16">
         <v>1.9458101647108804E-4</v>
       </c>
-      <c r="AD16" s="34">
+      <c r="AD16">
         <v>2.1071314365745959E-4</v>
       </c>
-      <c r="AE16" s="34">
+      <c r="AE16">
         <v>3.3306921986124155E-5</v>
       </c>
-      <c r="AF16" s="34">
+      <c r="AF16">
         <v>3.8934561098326707E-3</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="32">
         <v>0.27723995782120614</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17">
         <v>-3.4638327372697469E-5</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17">
         <v>-1.0995981482035515E-4</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17">
         <v>8.1841005749213888E-7</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17">
         <v>1.1804426369269738E-4</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17">
         <v>1.3032892315599092E-4</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17">
         <v>-2.5911284146513179E-5</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17">
         <v>1.0458038504423981E-4</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17">
         <v>1.8560650472442669E-5</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17">
         <v>4.3137971091120091E-4</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17">
         <v>5.3223834446905276E-4</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17">
         <v>7.8351915369490304E-4</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17">
         <v>8.8166730670927987E-4</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17">
         <v>-7.4310275020810635E-5</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17">
         <v>-4.6053378364637756E-4</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17">
         <v>4.8891522420214906E-4</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17">
         <v>1.1673034321486562E-3</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17">
         <v>-5.3178982837819889E-4</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17">
         <v>1.4028699541898605E-5</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17">
         <v>8.4031277138448132E-5</v>
       </c>
-      <c r="V17" s="34">
+      <c r="V17">
         <v>1.0448590317779139E-4</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17">
         <v>5.9140152524282354E-5</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17">
         <v>7.526655962588225E-5</v>
       </c>
-      <c r="Y17" s="34">
+      <c r="Y17">
         <v>1.0222439494570129E-4</v>
       </c>
-      <c r="Z17" s="34">
+      <c r="Z17">
         <v>7.7293183331193685E-5</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17">
         <v>1.5616310082869919E-4</v>
       </c>
-      <c r="AB17" s="34">
+      <c r="AB17">
         <v>8.961795779504852E-5</v>
       </c>
-      <c r="AC17" s="34">
+      <c r="AC17">
         <v>5.7211964413363668E-5</v>
       </c>
-      <c r="AD17" s="34">
+      <c r="AD17">
         <v>1.359616940043492E-5</v>
       </c>
-      <c r="AE17" s="34">
+      <c r="AE17">
         <v>-6.6022896360770287E-6</v>
       </c>
-      <c r="AF17" s="34">
+      <c r="AF17">
         <v>2.6002035507428512E-3</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="32">
         <v>-6.3575525273328479E-2</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18">
         <v>-7.6931992293757497E-6</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18">
         <v>-6.9736021500287591E-5</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18">
         <v>6.2259901012285724E-7</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18">
         <v>-9.5204816640091804E-5</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18">
         <v>2.5821786111076335E-5</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18">
         <v>7.4196959644530513E-6</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18">
         <v>-5.2028565978184428E-5</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18">
         <v>-1.5185898821099765E-4</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18">
         <v>4.3937555496938229E-4</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18">
         <v>5.1269152002512009E-4</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18">
         <v>5.707463088458751E-4</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18">
         <v>6.365187794725582E-4</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18">
         <v>3.3950336542448994E-4</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18">
         <v>3.0448981610596895E-4</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18">
         <v>6.0390746472973071E-5</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18">
         <v>-5.3178982837819889E-4</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18">
         <v>5.0437041815327328E-3</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18">
         <v>-1.4857771929857095E-4</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18">
         <v>-2.4338594055651046E-4</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18">
         <v>-2.2606497841701339E-4</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18">
         <v>-3.4297065583051882E-5</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18">
         <v>-1.3705789518569808E-4</v>
       </c>
-      <c r="Y18" s="34">
+      <c r="Y18">
         <v>-1.5701831059803528E-4</v>
       </c>
-      <c r="Z18" s="34">
+      <c r="Z18">
         <v>-1.003515943678898E-4</v>
       </c>
-      <c r="AA18" s="34">
+      <c r="AA18">
         <v>-1.1950991775553209E-4</v>
       </c>
-      <c r="AB18" s="34">
+      <c r="AB18">
         <v>-3.8620289259971282E-4</v>
       </c>
-      <c r="AC18" s="34">
+      <c r="AC18">
         <v>-3.1101414044408087E-4</v>
       </c>
-      <c r="AD18" s="34">
+      <c r="AD18">
         <v>-4.3647782840551324E-4</v>
       </c>
-      <c r="AE18" s="34">
+      <c r="AE18">
         <v>1.0212169554647413E-5</v>
       </c>
-      <c r="AF18" s="34">
+      <c r="AF18">
         <v>1.3396982209654693E-3</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="32">
         <v>0.2510534047067679</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19">
         <v>3.143489596303068E-5</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19">
         <v>3.6144736135003755E-5</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19">
         <v>-4.0614411358897806E-7</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19">
         <v>-2.6104291972460047E-4</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19">
         <v>-1.8224379570914594E-4</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19">
         <v>1.7165213918793592E-4</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19">
         <v>-9.8978968027259914E-5</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19">
         <v>1.5727327302774504E-4</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19">
         <v>-1.0045764365761156E-4</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19">
         <v>-9.3572469280081691E-5</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19">
         <v>-1.6427331791228346E-4</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19">
         <v>-1.1833342735106511E-4</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19">
         <v>-3.1056051544668824E-5</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19">
         <v>-9.2440176628251361E-6</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19">
         <v>-1.7398193385472632E-5</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19">
         <v>1.4028699541898605E-5</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19">
         <v>-1.4857771929857095E-4</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19">
         <v>6.5436570818585031E-3</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19">
         <v>2.7637291662256742E-3</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19">
         <v>2.7787408386972944E-3</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19">
         <v>2.7479396201070322E-3</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19">
         <v>2.774040782938361E-3</v>
       </c>
-      <c r="Y19" s="34">
+      <c r="Y19">
         <v>2.7637155812525105E-3</v>
       </c>
-      <c r="Z19" s="34">
+      <c r="Z19">
         <v>2.7506055232841692E-3</v>
       </c>
-      <c r="AA19" s="34">
+      <c r="AA19">
         <v>2.7466813831890091E-3</v>
       </c>
-      <c r="AB19" s="34">
+      <c r="AB19">
         <v>2.7698594781893626E-3</v>
       </c>
-      <c r="AC19" s="34">
+      <c r="AC19">
         <v>2.7933954401072603E-3</v>
       </c>
-      <c r="AD19" s="34">
+      <c r="AD19">
         <v>2.7968549002367338E-3</v>
       </c>
-      <c r="AE19" s="34">
+      <c r="AE19">
         <v>3.2677636423871528E-6</v>
       </c>
-      <c r="AF19" s="34">
+      <c r="AF19">
         <v>-3.25849314325816E-3</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="32">
         <v>0.12963233397909971</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20">
         <v>-7.6069381875055374E-5</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20">
         <v>2.55005833893103E-5</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20">
         <v>-3.7766617261648699E-7</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20">
         <v>-1.8192352042595904E-4</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20">
         <v>-2.4735186694622752E-4</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20">
         <v>1.3303214031697825E-4</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20">
         <v>-1.517411331257879E-5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20">
         <v>1.5863567682737601E-4</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20">
         <v>-1.426402226622893E-4</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20">
         <v>-2.3644079712982404E-4</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20">
         <v>-5.4209929451662277E-5</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20">
         <v>-8.0172851805283525E-5</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20">
         <v>-1.252670570871844E-4</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20">
         <v>-6.205045268763414E-5</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20">
         <v>2.2975029636909292E-4</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20">
         <v>8.4031277138448132E-5</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S20">
         <v>-2.4338594055651046E-4</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20">
         <v>2.7637291662256742E-3</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20">
         <v>4.391735949141465E-3</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20">
         <v>2.7770493557274147E-3</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20">
         <v>2.7414856681177106E-3</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X20">
         <v>2.7707364732558739E-3</v>
       </c>
-      <c r="Y20" s="34">
+      <c r="Y20">
         <v>2.7689235903647037E-3</v>
       </c>
-      <c r="Z20" s="34">
+      <c r="Z20">
         <v>2.7394927757096493E-3</v>
       </c>
-      <c r="AA20" s="34">
+      <c r="AA20">
         <v>2.7528720972018255E-3</v>
       </c>
-      <c r="AB20" s="34">
+      <c r="AB20">
         <v>2.7856838169165784E-3</v>
       </c>
-      <c r="AC20" s="34">
+      <c r="AC20">
         <v>2.7742213294126425E-3</v>
       </c>
-      <c r="AD20" s="34">
+      <c r="AD20">
         <v>2.8040376274428825E-3</v>
       </c>
-      <c r="AE20" s="34">
+      <c r="AE20">
         <v>4.8013034428880553E-6</v>
       </c>
-      <c r="AF20" s="34">
+      <c r="AF20">
         <v>-2.7178334461515664E-3</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="32">
         <v>0.15975852927133879</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21">
         <v>-8.1531594730052196E-5</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21">
         <v>3.4792875842242985E-5</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21">
         <v>-4.184135688729498E-7</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21">
         <v>-1.6369116942633612E-4</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21">
         <v>-1.6742430249840827E-4</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21">
         <v>1.3268791745874443E-4</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21">
         <v>-2.0973230677165746E-4</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21">
         <v>2.7582550609975986E-4</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21">
         <v>2.0411848846340458E-5</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21">
         <v>-2.9703182050490372E-4</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21">
         <v>4.2070345707164781E-5</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21">
         <v>4.4193219023757127E-5</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21">
         <v>7.0418787797501864E-5</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21">
         <v>-4.6979180326338658E-5</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21">
         <v>3.3131871298212336E-4</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21">
         <v>1.0448590317779139E-4</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21">
         <v>-2.2606497841701339E-4</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21">
         <v>2.7787408386972944E-3</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21">
         <v>2.7770493557274147E-3</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21">
         <v>5.0326887219043215E-3</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21">
         <v>2.7678044238354377E-3</v>
       </c>
-      <c r="X21" s="34">
+      <c r="X21">
         <v>2.7852664710465514E-3</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21">
         <v>2.776556084416449E-3</v>
       </c>
-      <c r="Z21" s="34">
+      <c r="Z21">
         <v>2.7557562388475952E-3</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="AA21">
         <v>2.7621151120023183E-3</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21">
         <v>2.7891595368196576E-3</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AC21">
         <v>2.7825057891653574E-3</v>
       </c>
-      <c r="AD21" s="34">
+      <c r="AD21">
         <v>2.8045014535524318E-3</v>
       </c>
-      <c r="AE21" s="34">
+      <c r="AE21">
         <v>-3.8205665639500731E-6</v>
       </c>
-      <c r="AF21" s="34">
+      <c r="AF21">
         <v>-3.121844007346726E-3</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="32">
         <v>5.9679127579053123E-2</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22">
         <v>-1.0346867526160602E-4</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22">
         <v>-8.6829509615552955E-5</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22">
         <v>6.0276260526985893E-7</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22">
         <v>-1.1044873132196295E-4</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22">
         <v>-1.8305346508035782E-4</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22">
         <v>9.7592703983916378E-5</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22">
         <v>-5.6908694424434884E-5</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22">
         <v>7.9652623033372224E-6</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22">
         <v>-1.2500313090868173E-4</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22">
         <v>-3.4820183834264251E-4</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22">
         <v>-1.1790689310424841E-4</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22">
         <v>-1.2075829313652471E-4</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22">
         <v>1.3098311645166704E-4</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22">
         <v>-1.6767464367412359E-6</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22">
         <v>3.6157000961158786E-4</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R22">
         <v>5.9140152524282354E-5</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22">
         <v>-3.4297065583051882E-5</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T22">
         <v>2.7479396201070322E-3</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22">
         <v>2.7414856681177106E-3</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22">
         <v>2.7678044238354377E-3</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22">
         <v>4.8099362929679207E-3</v>
       </c>
-      <c r="X22" s="34">
+      <c r="X22">
         <v>2.7624417773083475E-3</v>
       </c>
-      <c r="Y22" s="34">
+      <c r="Y22">
         <v>2.7594900284928611E-3</v>
       </c>
-      <c r="Z22" s="34">
+      <c r="Z22">
         <v>2.7396665311494447E-3</v>
       </c>
-      <c r="AA22" s="34">
+      <c r="AA22">
         <v>2.7450888279100132E-3</v>
       </c>
-      <c r="AB22" s="34">
+      <c r="AB22">
         <v>2.7680922015761453E-3</v>
       </c>
-      <c r="AC22" s="34">
+      <c r="AC22">
         <v>2.7262192835854058E-3</v>
       </c>
-      <c r="AD22" s="34">
+      <c r="AD22">
         <v>2.7488655175058113E-3</v>
       </c>
-      <c r="AE22" s="34">
+      <c r="AE22">
         <v>3.2678861486736942E-6</v>
       </c>
-      <c r="AF22" s="34">
+      <c r="AF22">
         <v>4.9269376047868935E-4</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="32">
         <v>5.5167517071392891E-2</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23">
         <v>-7.3478655738558969E-5</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23">
         <v>-5.9899773932999695E-5</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23">
         <v>3.6656463955331005E-7</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23">
         <v>-1.9519920751484354E-4</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23">
         <v>-2.5192198060492197E-4</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23">
         <v>1.4860511587423491E-4</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23">
         <v>6.2785480839022342E-6</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23">
         <v>5.6982657024228769E-5</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23">
         <v>-8.4210110233753259E-5</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23">
         <v>-2.6781664220354049E-4</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23">
         <v>-1.0574664720224914E-4</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23">
         <v>-7.5606659453516731E-5</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23">
         <v>-6.8365858644230777E-5</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23">
         <v>-2.0075128717382497E-5</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23">
         <v>1.2462522523835201E-4</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23">
         <v>7.526655962588225E-5</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23">
         <v>-1.3705789518569808E-4</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23">
         <v>2.774040782938361E-3</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23">
         <v>2.7707364732558739E-3</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23">
         <v>2.7852664710465514E-3</v>
       </c>
-      <c r="W23" s="34">
+      <c r="W23">
         <v>2.7624417773083475E-3</v>
       </c>
-      <c r="X23" s="34">
+      <c r="X23">
         <v>4.7153014575144593E-3</v>
       </c>
-      <c r="Y23" s="34">
+      <c r="Y23">
         <v>2.7658879761589625E-3</v>
       </c>
-      <c r="Z23" s="34">
+      <c r="Z23">
         <v>2.7558549549319199E-3</v>
       </c>
-      <c r="AA23" s="34">
+      <c r="AA23">
         <v>2.7540834843771994E-3</v>
       </c>
-      <c r="AB23" s="34">
+      <c r="AB23">
         <v>2.7861252360471505E-3</v>
       </c>
-      <c r="AC23" s="34">
+      <c r="AC23">
         <v>2.7651476437713287E-3</v>
       </c>
-      <c r="AD23" s="34">
+      <c r="AD23">
         <v>2.7837663644131685E-3</v>
       </c>
-      <c r="AE23" s="34">
+      <c r="AE23">
         <v>1.7134364947039301E-6</v>
       </c>
-      <c r="AF23" s="34">
+      <c r="AF23">
         <v>-2.6889247334515969E-4</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="32">
         <v>1.7310479068875853E-2</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24">
         <v>-6.1080654434684969E-5</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24">
         <v>1.0718832265953215E-4</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24">
         <v>-9.9814261020534875E-7</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24">
         <v>-1.3568820330828743E-4</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24">
         <v>-1.7458218281185078E-4</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24">
         <v>1.3066039390154344E-4</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24">
         <v>-7.0161207357967827E-5</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24">
         <v>1.2577496146109481E-4</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24">
         <v>-8.2585742942340931E-5</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24">
         <v>-3.4271291312069018E-4</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24">
         <v>-1.1849830902471888E-4</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24">
         <v>-1.9652090876165138E-4</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24">
         <v>-8.7721870927583222E-6</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24">
         <v>-7.353505803267611E-5</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24">
         <v>2.9097214330650362E-4</v>
       </c>
-      <c r="R24" s="34">
+      <c r="R24">
         <v>1.0222439494570129E-4</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24">
         <v>-1.5701831059803528E-4</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24">
         <v>2.7637155812525105E-3</v>
       </c>
-      <c r="U24" s="34">
+      <c r="U24">
         <v>2.7689235903647037E-3</v>
       </c>
-      <c r="V24" s="34">
+      <c r="V24">
         <v>2.776556084416449E-3</v>
       </c>
-      <c r="W24" s="34">
+      <c r="W24">
         <v>2.7594900284928611E-3</v>
       </c>
-      <c r="X24" s="34">
+      <c r="X24">
         <v>2.7658879761589625E-3</v>
       </c>
-      <c r="Y24" s="34">
+      <c r="Y24">
         <v>4.393998263222015E-3</v>
       </c>
-      <c r="Z24" s="34">
+      <c r="Z24">
         <v>2.7609461835435747E-3</v>
       </c>
-      <c r="AA24" s="34">
+      <c r="AA24">
         <v>2.7663611374829848E-3</v>
       </c>
-      <c r="AB24" s="34">
+      <c r="AB24">
         <v>2.7826982388571711E-3</v>
       </c>
-      <c r="AC24" s="34">
+      <c r="AC24">
         <v>2.7646039527457729E-3</v>
       </c>
-      <c r="AD24" s="34">
+      <c r="AD24">
         <v>2.7699711519188035E-3</v>
       </c>
-      <c r="AE24" s="34">
+      <c r="AE24">
         <v>7.9970302536241754E-6</v>
       </c>
-      <c r="AF24" s="34">
+      <c r="AF24">
         <v>-5.4075586398697542E-3</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="32">
         <v>1.7009597597046618E-2</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25">
         <v>-5.9068081759810955E-5</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25">
         <v>-1.9218239408584289E-4</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25">
         <v>1.398068167152413E-6</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25">
         <v>-1.0612947769279889E-4</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25">
         <v>-1.160654570843116E-4</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25">
         <v>1.062509609420911E-4</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25">
         <v>-4.0805767119041561E-5</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25">
         <v>1.3391360093581092E-4</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25">
         <v>-1.3520429948424674E-4</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25">
         <v>-3.1873603626699203E-4</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25">
         <v>-1.0274270756530134E-4</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25">
         <v>-1.6916382109723963E-4</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25">
         <v>1.838485033698944E-5</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25">
         <v>-2.7399835660113156E-5</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25">
         <v>1.1479615284428575E-4</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25">
         <v>7.7293183331193685E-5</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25">
         <v>-1.003515943678898E-4</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25">
         <v>2.7506055232841692E-3</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25">
         <v>2.7394927757096493E-3</v>
       </c>
-      <c r="V25" s="34">
+      <c r="V25">
         <v>2.7557562388475952E-3</v>
       </c>
-      <c r="W25" s="34">
+      <c r="W25">
         <v>2.7396665311494447E-3</v>
       </c>
-      <c r="X25" s="34">
+      <c r="X25">
         <v>2.7558549549319199E-3</v>
       </c>
-      <c r="Y25" s="34">
+      <c r="Y25">
         <v>2.7609461835435747E-3</v>
       </c>
-      <c r="Z25" s="34">
+      <c r="Z25">
         <v>3.9498028831705494E-3</v>
       </c>
-      <c r="AA25" s="34">
+      <c r="AA25">
         <v>2.7549928326141334E-3</v>
       </c>
-      <c r="AB25" s="34">
+      <c r="AB25">
         <v>2.7675613319740004E-3</v>
       </c>
-      <c r="AC25" s="34">
+      <c r="AC25">
         <v>2.7461363121034765E-3</v>
       </c>
-      <c r="AD25" s="34">
+      <c r="AD25">
         <v>2.7387005246695454E-3</v>
       </c>
-      <c r="AE25" s="34">
+      <c r="AE25">
         <v>6.9798682387376472E-6</v>
       </c>
-      <c r="AF25" s="34">
+      <c r="AF25">
         <v>3.8463653173092353E-3</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="32">
         <v>3.4829301572494711E-2</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26">
         <v>-2.2467875140038806E-5</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26">
         <v>1.7630287833594882E-5</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26">
         <v>-3.4428347065719401E-7</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26">
         <v>-8.6902607109146893E-5</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26">
         <v>-9.0662847837624753E-5</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26">
         <v>1.8035544066457069E-4</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26">
         <v>3.6547604034029122E-5</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26">
         <v>1.121075031382874E-4</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26">
         <v>-7.0554837364963843E-5</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26">
         <v>-2.3711454289266406E-4</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26">
         <v>1.9968171614645437E-5</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26">
         <v>-8.2347892081545328E-6</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26">
         <v>-3.2902608608449083E-5</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26">
         <v>-9.4973951216382937E-5</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26">
         <v>2.0853566533910253E-4</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26">
         <v>1.5616310082869919E-4</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26">
         <v>-1.1950991775553209E-4</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26">
         <v>2.7466813831890091E-3</v>
       </c>
-      <c r="U26" s="34">
+      <c r="U26">
         <v>2.7528720972018255E-3</v>
       </c>
-      <c r="V26" s="34">
+      <c r="V26">
         <v>2.7621151120023183E-3</v>
       </c>
-      <c r="W26" s="34">
+      <c r="W26">
         <v>2.7450888279100132E-3</v>
       </c>
-      <c r="X26" s="34">
+      <c r="X26">
         <v>2.7540834843771994E-3</v>
       </c>
-      <c r="Y26" s="34">
+      <c r="Y26">
         <v>2.7663611374829848E-3</v>
       </c>
-      <c r="Z26" s="34">
+      <c r="Z26">
         <v>2.7549928326141334E-3</v>
       </c>
-      <c r="AA26" s="34">
+      <c r="AA26">
         <v>4.2220544215534686E-3</v>
       </c>
-      <c r="AB26" s="34">
+      <c r="AB26">
         <v>2.7766061110062958E-3</v>
       </c>
-      <c r="AC26" s="34">
+      <c r="AC26">
         <v>2.7486369812913204E-3</v>
       </c>
-      <c r="AD26" s="34">
+      <c r="AD26">
         <v>2.7480759871079093E-3</v>
       </c>
-      <c r="AE26" s="34">
+      <c r="AE26">
         <v>1.4451002592103987E-5</v>
       </c>
-      <c r="AF26" s="34">
+      <c r="AF26">
         <v>-2.7294336605589997E-3</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="32">
         <v>0.16048032273737442</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27">
         <v>-3.7161321785579376E-5</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27">
         <v>5.6285297925688996E-5</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27">
         <v>-6.2217366941581169E-7</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27">
         <v>-1.5961324983134254E-4</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27">
         <v>-2.1441992378216186E-4</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27">
         <v>1.486528170439763E-4</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27">
         <v>-2.2615461207891457E-6</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27">
         <v>7.3872924148294565E-5</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27">
         <v>-2.5685639886630497E-4</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27">
         <v>-4.9095707941821894E-4</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27">
         <v>-2.1696186308960011E-4</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27">
         <v>-2.6532005917264951E-4</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27">
         <v>-1.085350091341349E-4</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27">
         <v>-8.590133107477956E-5</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27">
         <v>2.7524000968497542E-4</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27">
         <v>8.961795779504852E-5</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27">
         <v>-3.8620289259971282E-4</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27">
         <v>2.7698594781893626E-3</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27">
         <v>2.7856838169165784E-3</v>
       </c>
-      <c r="V27" s="34">
+      <c r="V27">
         <v>2.7891595368196576E-3</v>
       </c>
-      <c r="W27" s="34">
+      <c r="W27">
         <v>2.7680922015761453E-3</v>
       </c>
-      <c r="X27" s="34">
+      <c r="X27">
         <v>2.7861252360471505E-3</v>
       </c>
-      <c r="Y27" s="34">
+      <c r="Y27">
         <v>2.7826982388571711E-3</v>
       </c>
-      <c r="Z27" s="34">
+      <c r="Z27">
         <v>2.7675613319740004E-3</v>
       </c>
-      <c r="AA27" s="34">
+      <c r="AA27">
         <v>2.7766061110062958E-3</v>
       </c>
-      <c r="AB27" s="34">
+      <c r="AB27">
         <v>6.6952829559243764E-3</v>
       </c>
-      <c r="AC27" s="34">
+      <c r="AC27">
         <v>2.7775334971195773E-3</v>
       </c>
-      <c r="AD27" s="34">
+      <c r="AD27">
         <v>2.8097672155496817E-3</v>
       </c>
-      <c r="AE27" s="34">
+      <c r="AE27">
         <v>7.790792633797356E-6</v>
       </c>
-      <c r="AF27" s="34">
+      <c r="AF27">
         <v>-3.6024229792626962E-3</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="32">
         <v>5.4331427011432183E-2</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28">
         <v>-3.4448943207901668E-5</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28">
         <v>1.0564338208283314E-4</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28">
         <v>-1.0182122850164928E-6</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28">
         <v>-2.1596422838458926E-4</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28">
         <v>-1.7203816291442361E-4</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28">
         <v>2.0117366412378528E-4</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28">
         <v>-1.2603095448221902E-4</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28">
         <v>2.5822694471713651E-4</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28">
         <v>-2.135607467002754E-4</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28">
         <v>-4.1625529208927435E-4</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28">
         <v>-2.7460011253608164E-4</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28">
         <v>-3.5388740733746172E-4</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28">
         <v>-2.758693810035026E-4</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28">
         <v>2.9922424732516887E-5</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28">
         <v>1.9458101647108804E-4</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28">
         <v>5.7211964413363668E-5</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28">
         <v>-3.1101414044408087E-4</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28">
         <v>2.7933954401072603E-3</v>
       </c>
-      <c r="U28" s="34">
+      <c r="U28">
         <v>2.7742213294126425E-3</v>
       </c>
-      <c r="V28" s="34">
+      <c r="V28">
         <v>2.7825057891653574E-3</v>
       </c>
-      <c r="W28" s="34">
+      <c r="W28">
         <v>2.7262192835854058E-3</v>
       </c>
-      <c r="X28" s="34">
+      <c r="X28">
         <v>2.7651476437713287E-3</v>
       </c>
-      <c r="Y28" s="34">
+      <c r="Y28">
         <v>2.7646039527457729E-3</v>
       </c>
-      <c r="Z28" s="34">
+      <c r="Z28">
         <v>2.7461363121034765E-3</v>
       </c>
-      <c r="AA28" s="34">
+      <c r="AA28">
         <v>2.7486369812913204E-3</v>
       </c>
-      <c r="AB28" s="34">
+      <c r="AB28">
         <v>2.7775334971195773E-3</v>
       </c>
-      <c r="AC28" s="34">
+      <c r="AC28">
         <v>5.1414648405397455E-3</v>
       </c>
-      <c r="AD28" s="34">
+      <c r="AD28">
         <v>2.795206183140591E-3</v>
       </c>
-      <c r="AE28" s="34">
+      <c r="AE28">
         <v>1.0231857113999667E-5</v>
       </c>
-      <c r="AF28" s="34">
+      <c r="AF28">
         <v>-5.1253190498863899E-3</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="32">
         <v>3.5545135551560872E-2</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29">
         <v>-8.9844674145945613E-5</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29">
         <v>1.5994221554627847E-4</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29">
         <v>-1.389398706472131E-6</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29">
         <v>-2.0742461688023512E-4</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29">
         <v>-2.9325538905207948E-4</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29">
         <v>1.5988749291411669E-4</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29">
         <v>-8.0807010174329709E-5</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29">
         <v>-4.897957596414421E-5</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29">
         <v>-2.3370356002781669E-4</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29">
         <v>-3.4810836851298941E-4</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29">
         <v>-1.4742198963672718E-4</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N29">
         <v>-2.6841054013949581E-4</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29">
         <v>-2.2014887042754339E-4</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29">
         <v>2.2381140285126101E-5</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29">
         <v>2.1071314365745959E-4</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29">
         <v>1.359616940043492E-5</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29">
         <v>-4.3647782840551324E-4</v>
       </c>
-      <c r="T29" s="34">
+      <c r="T29">
         <v>2.7968549002367338E-3</v>
       </c>
-      <c r="U29" s="34">
+      <c r="U29">
         <v>2.8040376274428825E-3</v>
       </c>
-      <c r="V29" s="34">
+      <c r="V29">
         <v>2.8045014535524318E-3</v>
       </c>
-      <c r="W29" s="34">
+      <c r="W29">
         <v>2.7488655175058113E-3</v>
       </c>
-      <c r="X29" s="34">
+      <c r="X29">
         <v>2.7837663644131685E-3</v>
       </c>
-      <c r="Y29" s="34">
+      <c r="Y29">
         <v>2.7699711519188035E-3</v>
       </c>
-      <c r="Z29" s="34">
+      <c r="Z29">
         <v>2.7387005246695454E-3</v>
       </c>
-      <c r="AA29" s="34">
+      <c r="AA29">
         <v>2.7480759871079093E-3</v>
       </c>
-      <c r="AB29" s="34">
+      <c r="AB29">
         <v>2.8097672155496817E-3</v>
       </c>
-      <c r="AC29" s="34">
+      <c r="AC29">
         <v>2.795206183140591E-3</v>
       </c>
-      <c r="AD29" s="34">
+      <c r="AD29">
         <v>7.4798209003890427E-3</v>
       </c>
-      <c r="AE29" s="34">
+      <c r="AE29">
         <v>1.6618183437591E-5</v>
       </c>
-      <c r="AF29" s="34">
+      <c r="AF29">
         <v>-7.132910182492503E-3</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="32">
         <v>-2.5578978495737176E-2</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30">
         <v>1.2085323095572514E-5</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30">
         <v>2.5903156582405271E-5</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30">
         <v>-2.5161165034456132E-7</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30">
         <v>4.9307358700622213E-6</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30">
         <v>1.7901698413753382E-5</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30">
         <v>4.5684877710700376E-5</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30">
         <v>-1.4335393541512875E-5</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30">
         <v>1.6216016120824353E-5</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30">
         <v>-1.1510188639556141E-5</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30">
         <v>-1.2965149556274193E-5</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30">
         <v>-1.6675836028256493E-5</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30">
         <v>-1.6670747355147055E-5</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30">
         <v>4.1151795873663889E-6</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30">
         <v>2.0896446927927255E-5</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30">
         <v>3.3306921986124155E-5</v>
       </c>
-      <c r="R30" s="34">
+      <c r="R30">
         <v>-6.6022896360770287E-6</v>
       </c>
-      <c r="S30" s="34">
+      <c r="S30">
         <v>1.0212169554647413E-5</v>
       </c>
-      <c r="T30" s="34">
+      <c r="T30">
         <v>3.2677636423871528E-6</v>
       </c>
-      <c r="U30" s="34">
+      <c r="U30">
         <v>4.8013034428880553E-6</v>
       </c>
-      <c r="V30" s="34">
+      <c r="V30">
         <v>-3.8205665639500731E-6</v>
       </c>
-      <c r="W30" s="34">
+      <c r="W30">
         <v>3.2678861486736942E-6</v>
       </c>
-      <c r="X30" s="34">
+      <c r="X30">
         <v>1.7134364947039301E-6</v>
       </c>
-      <c r="Y30" s="34">
+      <c r="Y30">
         <v>7.9970302536241754E-6</v>
       </c>
-      <c r="Z30" s="34">
+      <c r="Z30">
         <v>6.9798682387376472E-6</v>
       </c>
-      <c r="AA30" s="34">
+      <c r="AA30">
         <v>1.4451002592103987E-5</v>
       </c>
-      <c r="AB30" s="34">
+      <c r="AB30">
         <v>7.790792633797356E-6</v>
       </c>
-      <c r="AC30" s="34">
+      <c r="AC30">
         <v>1.0231857113999667E-5</v>
       </c>
-      <c r="AD30" s="34">
+      <c r="AD30">
         <v>1.6618183437591E-5</v>
       </c>
-      <c r="AE30" s="34">
+      <c r="AE30">
         <v>2.06682177447433E-5</v>
       </c>
-      <c r="AF30" s="34">
+      <c r="AF30">
         <v>-9.7541563672522505E-4</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="32">
         <v>-23.919204940781906</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31">
         <v>-6.249558041045049E-3</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31">
         <v>-9.0101802220795169E-2</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31">
         <v>7.3297327156767464E-4</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31">
         <v>6.8903590998344866E-3</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31">
         <v>9.3545274009257488E-3</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31">
         <v>-1.4088261015994856E-2</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31">
         <v>-4.3581550664175787E-3</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31">
         <v>-5.9170451228001061E-3</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31">
         <v>9.7253994840361402E-5</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31">
         <v>-9.0968395692059278E-5</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31">
         <v>2.73415883178664E-3</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31">
         <v>6.740657660800134E-3</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31">
         <v>8.7379869150512844E-3</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31">
         <v>-2.7032700401753845E-3</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31">
         <v>3.8934561098326707E-3</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31">
         <v>2.6002035507428512E-3</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31">
         <v>1.3396982209654693E-3</v>
       </c>
-      <c r="T31" s="34">
+      <c r="T31">
         <v>-3.25849314325816E-3</v>
       </c>
-      <c r="U31" s="34">
+      <c r="U31">
         <v>-2.7178334461515664E-3</v>
       </c>
-      <c r="V31" s="34">
+      <c r="V31">
         <v>-3.121844007346726E-3</v>
       </c>
-      <c r="W31" s="34">
+      <c r="W31">
         <v>4.9269376047868935E-4</v>
       </c>
-      <c r="X31" s="34">
+      <c r="X31">
         <v>-2.6889247334515969E-4</v>
       </c>
-      <c r="Y31" s="34">
+      <c r="Y31">
         <v>-5.4075586398697542E-3</v>
       </c>
-      <c r="Z31" s="34">
+      <c r="Z31">
         <v>3.8463653173092353E-3</v>
       </c>
-      <c r="AA31" s="34">
+      <c r="AA31">
         <v>-2.7294336605589997E-3</v>
       </c>
-      <c r="AB31" s="34">
+      <c r="AB31">
         <v>-3.6024229792626962E-3</v>
       </c>
-      <c r="AC31" s="34">
+      <c r="AC31">
         <v>-5.1253190498863899E-3</v>
       </c>
-      <c r="AD31" s="34">
+      <c r="AD31">
         <v>-7.132910182492503E-3</v>
       </c>
-      <c r="AE31" s="34">
+      <c r="AE31">
         <v>-9.7541563672522505E-4</v>
       </c>
-      <c r="AF31" s="34">
+      <c r="AF31">
         <v>2.7636889586769602</v>
       </c>
     </row>
@@ -6180,7 +6179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC894678-FF3B-4BA2-9B51-14A0FE2CE182}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6195,14 +6196,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6255,9 +6256,9 @@
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6408,9 +6409,9 @@
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6592,16 +6593,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="31">
         <v>-19.417280000000002</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="31">
         <v>1.7358279999999999</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <v>0</v>
       </c>
     </row>
@@ -6609,7 +6610,7 @@
       <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <v>67798</v>
       </c>
       <c r="C32" s="14"/>
@@ -6619,21 +6620,21 @@
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <v>0.17960000000000001</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
@@ -6651,8 +6652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ACBDF6-ACB6-4775-85A3-F219265F66AD}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6668,14 +6669,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>121</v>
       </c>
       <c r="E4" s="3"/>
@@ -6733,9 +6734,9 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="3"/>
       <c r="H8"/>
     </row>
@@ -6928,9 +6929,9 @@
       <c r="A21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="3"/>
       <c r="H21"/>
     </row>
@@ -6986,9 +6987,9 @@
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="3"/>
       <c r="H25"/>
     </row>
@@ -7182,16 +7183,16 @@
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="31">
         <v>-23.9192</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="31">
         <v>1.6624350000000001</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="31">
         <v>0</v>
       </c>
       <c r="E38" s="7"/>
@@ -7200,7 +7201,7 @@
       <c r="A39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="22">
         <v>147807</v>
       </c>
       <c r="C39" s="14"/>
@@ -7210,21 +7211,21 @@
       <c r="A40" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="23">
         <v>3.56E-2</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <v>0.17810000000000001</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
@@ -10322,31 +10323,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="I1" s="23" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -10925,31 +10926,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="I1" s="23" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
